--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="9000"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1621,10 +1621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1655,6 +1655,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1663,7 +1686,69 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1677,83 +1762,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1767,33 +1778,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1813,7 +1813,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,25 +1957,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1855,25 +1969,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1885,115 +1993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,48 +2004,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2066,11 +2024,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2090,6 +2061,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2104,153 +2084,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
@@ -2635,16 +2635,16 @@
   <sheetPr/>
   <dimension ref="A1:D384"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A253" workbookViewId="0">
+      <selection activeCell="D261" sqref="D261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="5.51327433628319" customWidth="1"/>
-    <col min="2" max="2" width="23.9911504424779" customWidth="1"/>
-    <col min="3" max="3" width="13.929203539823" customWidth="1"/>
-    <col min="4" max="4" width="97.2389380530973" customWidth="1"/>
+    <col min="1" max="1" width="5.51666666666667" customWidth="1"/>
+    <col min="2" max="2" width="23.9916666666667" customWidth="1"/>
+    <col min="3" max="3" width="13.9333333333333" customWidth="1"/>
+    <col min="4" max="4" width="97.2416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">

--- a/documents/汽车维修保养管理系统数据表设计.xlsx
+++ b/documents/汽车维修保养管理系统数据表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556">
   <si>
     <t>表设计变动：</t>
   </si>
@@ -1586,6 +1586,15 @@
     <t>支出类型状态，Y表示可用，N表示不可用</t>
   </si>
   <si>
+    <t>createTime</t>
+  </si>
+  <si>
+    <t>dateTIME</t>
+  </si>
+  <si>
+    <t>支出类型创建时间</t>
+  </si>
+  <si>
     <t>收入类型表t_incoming_type</t>
   </si>
   <si>
@@ -1605,6 +1614,9 @@
   </si>
   <si>
     <t>收入类型状态，Y表示可用，N表示不可用</t>
+  </si>
+  <si>
+    <t>收入类型创建时间</t>
   </si>
   <si>
     <t>收支记录表t_incoming_outgoing</t>
@@ -1696,10 +1708,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1737,13 +1749,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1751,30 +1757,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1787,71 +1779,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1867,7 +1796,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1875,7 +1818,76 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1901,13 +1913,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1925,49 +1943,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,7 +1967,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,7 +2009,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2009,13 +2021,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2027,7 +2063,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2039,43 +2075,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2086,6 +2098,26 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2100,21 +2132,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2137,8 +2154,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2161,28 +2193,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2191,155 +2203,155 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2374,6 +2386,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2721,10 +2736,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:XFD412"/>
+  <dimension ref="A1:XFD414"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="D269" sqref="D269"/>
+    <sheetView tabSelected="1" topLeftCell="A369" workbookViewId="0">
+      <selection activeCell="D384" sqref="A384:D384"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -40143,169 +40158,169 @@
         <v>516</v>
       </c>
     </row>
-    <row r="385" s="2" customFormat="1" spans="1:4">
-      <c r="A385" s="3" t="s">
+    <row r="384" spans="1:4">
+      <c r="A384" s="12">
+        <v>5</v>
+      </c>
+      <c r="B384" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="B385" s="3"/>
-      <c r="C385" s="3"/>
-      <c r="D385" s="3"/>
+      <c r="C384" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="D384" s="1" t="s">
+        <v>519</v>
+      </c>
     </row>
     <row r="386" s="2" customFormat="1" spans="1:4">
-      <c r="A386" s="4" t="s">
+      <c r="A386" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+      <c r="D386" s="3"/>
+    </row>
+    <row r="387" s="2" customFormat="1" spans="1:4">
+      <c r="A387" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B386" s="4" t="s">
+      <c r="B387" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C386" s="4" t="s">
+      <c r="C387" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D386" s="4" t="s">
+      <c r="D387" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
-      <c r="A387">
+    <row r="388" spans="1:4">
+      <c r="A388">
         <v>1</v>
       </c>
-      <c r="B387" t="s">
-        <v>518</v>
-      </c>
-      <c r="C387" t="s">
+      <c r="B388" t="s">
+        <v>521</v>
+      </c>
+      <c r="C388" t="s">
         <v>11</v>
       </c>
-      <c r="D387" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="388" customFormat="1" spans="1:4">
-      <c r="A388">
-        <v>2</v>
-      </c>
-      <c r="B388" t="s">
-        <v>520</v>
-      </c>
-      <c r="C388" t="s">
-        <v>23</v>
-      </c>
       <c r="D388" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="389" customFormat="1" spans="1:4">
-      <c r="A389" s="1">
-        <v>3</v>
-      </c>
-      <c r="B389" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C389" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D389" s="11" t="s">
-        <v>474</v>
+      <c r="A389">
+        <v>2</v>
+      </c>
+      <c r="B389" t="s">
+        <v>523</v>
+      </c>
+      <c r="C389" t="s">
+        <v>23</v>
+      </c>
+      <c r="D389" t="s">
+        <v>524</v>
       </c>
     </row>
     <row r="390" customFormat="1" spans="1:4">
-      <c r="A390">
+      <c r="A390" s="1">
+        <v>3</v>
+      </c>
+      <c r="B390" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C390" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D390" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="391" customFormat="1" spans="1:4">
+      <c r="A391">
         <v>4</v>
       </c>
-      <c r="B390" t="s">
-        <v>522</v>
-      </c>
-      <c r="C390" t="s">
+      <c r="B391" t="s">
+        <v>525</v>
+      </c>
+      <c r="C391" t="s">
         <v>45</v>
       </c>
-      <c r="D390" t="s">
-        <v>523</v>
+      <c r="D391" t="s">
+        <v>526</v>
       </c>
     </row>
-    <row r="391" customFormat="1"/>
     <row r="392" customFormat="1" spans="1:4">
-      <c r="A392" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="B392" s="3"/>
-      <c r="C392" s="3"/>
-      <c r="D392" s="3"/>
+      <c r="A392" s="12">
+        <v>5</v>
+      </c>
+      <c r="B392" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C392" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D392" s="1" t="s">
+        <v>527</v>
+      </c>
     </row>
-    <row r="393" customFormat="1" spans="1:4">
-      <c r="A393" s="4" t="s">
+    <row r="393" customFormat="1"/>
+    <row r="394" customFormat="1" spans="1:4">
+      <c r="A394" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+      <c r="D394" s="3"/>
+    </row>
+    <row r="395" customFormat="1" spans="1:4">
+      <c r="A395" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B393" s="4" t="s">
+      <c r="B395" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C393" s="4" t="s">
+      <c r="C395" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D393" s="4" t="s">
+      <c r="D395" s="4" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="394" spans="1:4">
-      <c r="A394" s="2">
-        <v>1</v>
-      </c>
-      <c r="B394" s="2" t="s">
-        <v>525</v>
-      </c>
-      <c r="C394" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D394" s="2" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="395" spans="1:4">
-      <c r="A395" s="2">
-        <v>2</v>
-      </c>
-      <c r="B395" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="C395" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D395" s="2" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>3</v>
-      </c>
-      <c r="B396" t="s">
-        <v>511</v>
-      </c>
-      <c r="C396" t="s">
+        <v>1</v>
+      </c>
+      <c r="B396" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="C396" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D396" t="s">
-        <v>528</v>
+      <c r="D396" s="2" t="s">
+        <v>530</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>4</v>
-      </c>
-      <c r="B397" t="s">
-        <v>529</v>
-      </c>
-      <c r="C397" t="s">
-        <v>37</v>
-      </c>
-      <c r="D397" t="s">
-        <v>530</v>
+        <v>2</v>
+      </c>
+      <c r="B397" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="C397" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D397" s="2" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B398" t="s">
-        <v>531</v>
+        <v>511</v>
       </c>
       <c r="C398" t="s">
         <v>11</v>
@@ -40315,128 +40330,128 @@
       </c>
     </row>
     <row r="399" spans="1:4">
-      <c r="A399" s="1">
-        <v>6</v>
-      </c>
-      <c r="B399" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C399" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D399" s="11" t="s">
-        <v>474</v>
+      <c r="A399" s="2">
+        <v>4</v>
+      </c>
+      <c r="B399" t="s">
+        <v>533</v>
+      </c>
+      <c r="C399" t="s">
+        <v>37</v>
+      </c>
+      <c r="D399" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B400" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C400" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="D400" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="401" spans="1:4">
-      <c r="A401" s="2">
-        <v>8</v>
-      </c>
-      <c r="B401" t="s">
-        <v>535</v>
-      </c>
-      <c r="C401" t="s">
-        <v>45</v>
-      </c>
-      <c r="D401" t="s">
-        <v>536</v>
+      <c r="A401" s="1">
+        <v>6</v>
+      </c>
+      <c r="B401" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C401" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D401" s="11" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
+        <v>7</v>
+      </c>
+      <c r="B402" t="s">
+        <v>537</v>
+      </c>
+      <c r="C402" t="s">
+        <v>66</v>
+      </c>
+      <c r="D402" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="403" spans="1:4">
-      <c r="A403" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="B403" s="3"/>
-      <c r="C403" s="3"/>
-      <c r="D403" s="3"/>
-    </row>
-    <row r="404" spans="1:4">
-      <c r="A404" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B404" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C404" s="4" t="s">
+      <c r="A403" s="2">
         <v>8</v>
       </c>
-      <c r="D404" s="4" t="s">
-        <v>9</v>
+      <c r="B403" t="s">
+        <v>539</v>
+      </c>
+      <c r="C403" t="s">
+        <v>45</v>
+      </c>
+      <c r="D403" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="405" spans="1:4">
-      <c r="A405">
-        <v>1</v>
-      </c>
-      <c r="B405" t="s">
-        <v>538</v>
-      </c>
-      <c r="C405" t="s">
-        <v>11</v>
-      </c>
-      <c r="D405" t="s">
-        <v>539</v>
-      </c>
+      <c r="A405" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+      <c r="D405" s="3"/>
     </row>
     <row r="406" spans="1:4">
-      <c r="A406">
-        <v>2</v>
-      </c>
-      <c r="B406" t="s">
-        <v>48</v>
-      </c>
-      <c r="C406" t="s">
-        <v>11</v>
-      </c>
-      <c r="D406" t="s">
-        <v>124</v>
+      <c r="A406" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B406" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C406" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D406" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B407" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="C407" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D407" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B408" t="s">
-        <v>542</v>
+        <v>48</v>
       </c>
       <c r="C408" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D408" t="s">
-        <v>543</v>
+        <v>124</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B409" t="s">
         <v>544</v>
@@ -40450,13 +40465,13 @@
     </row>
     <row r="410" spans="1:4">
       <c r="A410">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B410" t="s">
         <v>546</v>
       </c>
       <c r="C410" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D410" t="s">
         <v>547</v>
@@ -40464,13 +40479,13 @@
     </row>
     <row r="411" spans="1:4">
       <c r="A411">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B411" t="s">
         <v>548</v>
       </c>
       <c r="C411" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="D411" t="s">
         <v>549</v>
@@ -40478,16 +40493,44 @@
     </row>
     <row r="412" spans="1:4">
       <c r="A412">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B412" t="s">
         <v>550</v>
       </c>
       <c r="C412" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="D412" t="s">
         <v>551</v>
+      </c>
+    </row>
+    <row r="413" spans="1:4">
+      <c r="A413">
+        <v>7</v>
+      </c>
+      <c r="B413" t="s">
+        <v>552</v>
+      </c>
+      <c r="C413" t="s">
+        <v>66</v>
+      </c>
+      <c r="D413" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="414" spans="1:4">
+      <c r="A414">
+        <v>8</v>
+      </c>
+      <c r="B414" t="s">
+        <v>554</v>
+      </c>
+      <c r="C414" t="s">
+        <v>66</v>
+      </c>
+      <c r="D414" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -40526,9 +40569,9 @@
     <mergeCell ref="A357:D357"/>
     <mergeCell ref="A368:D368"/>
     <mergeCell ref="A378:D378"/>
-    <mergeCell ref="A385:D385"/>
-    <mergeCell ref="A392:D392"/>
-    <mergeCell ref="A403:D403"/>
+    <mergeCell ref="A386:D386"/>
+    <mergeCell ref="A394:D394"/>
+    <mergeCell ref="A405:D405"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
